--- a/DigitalBackend/Dicussion with sun/checklist.xlsx
+++ b/DigitalBackend/Dicussion with sun/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LEON\lab\高效能人机交互芯片\Github\DigitalBackendNotes\DigitalBackend\Dicussion with sun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C70A295-95AD-48AB-A8C7-9E00AF5F7F9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1CEF26-8198-4025-99CD-33BA3D189195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{8A53E562-E746-40EF-A1FF-CD2D448FF7B3}"/>
   </bookViews>
@@ -275,9 +275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -286,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCD1787-1AB4-41A0-85EE-07C8FFA77C9C}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,352 +614,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
